--- a/Team-Data/2007-08/1-21-2007-08.xlsx
+++ b/Team-Data/2007-08/1-21-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,19 +733,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.474</v>
+        <v>0.486</v>
       </c>
       <c r="H2" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
         <v>34.3</v>
@@ -687,25 +754,25 @@
         <v>77.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>0.323</v>
+        <v>0.315</v>
       </c>
       <c r="O2" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="P2" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R2" t="n">
         <v>11.9</v>
@@ -714,16 +781,16 @@
         <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U2" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>5.8</v>
@@ -732,13 +799,13 @@
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>-0.8</v>
@@ -747,16 +814,16 @@
         <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
         <v>28</v>
@@ -765,19 +832,19 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP2" t="n">
         <v>6</v>
@@ -786,19 +853,19 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AU2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>22</v>
@@ -816,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="BB2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.846</v>
+        <v>0.842</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J3" t="n">
         <v>74.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P3" t="n">
         <v>27.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R3" t="n">
         <v>9.5</v>
@@ -899,7 +966,7 @@
         <v>41.2</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
         <v>15.1</v>
@@ -908,10 +975,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>21.7</v>
@@ -920,13 +987,13 @@
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>8</v>
@@ -971,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT3" t="n">
         <v>22</v>
@@ -980,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -992,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J4" t="n">
         <v>79.2</v>
@@ -1054,19 +1121,19 @@
         <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q4" t="n">
         <v>0.702</v>
@@ -1078,13 +1145,13 @@
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W4" t="n">
         <v>7.7</v>
@@ -1093,22 +1160,22 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1120,31 +1187,31 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>16</v>
       </c>
       <c r="AN4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP4" t="n">
         <v>13</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1156,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>21</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,34 +1297,34 @@
         <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O5" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
         <v>0.754</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S5" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
         <v>43.4</v>
@@ -1266,13 +1333,13 @@
         <v>21.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
@@ -1281,22 +1348,22 @@
         <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1314,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>20</v>
@@ -1326,22 +1393,22 @@
         <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
@@ -1350,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1365,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.55</v>
+        <v>0.538</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J6" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.434</v>
@@ -1421,19 +1488,19 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="O6" t="n">
         <v>18.3</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18.2</v>
-      </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R6" t="n">
         <v>13.2</v>
@@ -1445,13 +1512,13 @@
         <v>44.5</v>
       </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V6" t="n">
         <v>15.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
         <v>4.5</v>
@@ -1469,16 +1536,16 @@
         <v>96.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF6" t="n">
         <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
@@ -1493,25 +1560,25 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
@@ -1526,13 +1593,13 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.675</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L7" t="n">
         <v>6.2</v>
       </c>
       <c r="M7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P7" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.822</v>
+        <v>0.82</v>
       </c>
       <c r="R7" t="n">
         <v>10.4</v>
@@ -1624,58 +1691,58 @@
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V7" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="n">
         <v>4</v>
       </c>
-      <c r="Z7" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>5</v>
-      </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
@@ -1684,13 +1751,13 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1699,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
         <v>12</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1723,13 +1790,13 @@
         <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.615</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1785,16 +1852,16 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="P8" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="n">
         <v>0.754</v>
@@ -1803,52 +1870,52 @@
         <v>12.4</v>
       </c>
       <c r="S8" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
         <v>45.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
         <v>7.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
         <v>24.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.1</v>
+        <v>107.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>6</v>
@@ -1893,16 +1960,16 @@
         <v>25</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
         <v>79.5</v>
@@ -1970,13 +2037,13 @@
         <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.363</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.763</v>
@@ -1985,28 +2052,28 @@
         <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U9" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y9" t="n">
         <v>3.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA9" t="n">
         <v>20.4</v>
@@ -2015,7 +2082,7 @@
         <v>97.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AD9" t="n">
         <v>3</v>
@@ -2024,22 +2091,22 @@
         <v>2</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2048,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2063,10 +2130,10 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT9" t="n">
         <v>25</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>26</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2075,19 +2142,19 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>0.581</v>
+        <v>0.595</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J10" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="K10" t="n">
         <v>0.452</v>
@@ -2149,16 +2216,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O10" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.745</v>
@@ -2167,13 +2234,13 @@
         <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
@@ -2182,13 +2249,13 @@
         <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA10" t="n">
         <v>22.4</v>
@@ -2197,19 +2264,19 @@
         <v>109</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
@@ -2257,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10" t="n">
         <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.537</v>
+        <v>0.525</v>
       </c>
       <c r="H11" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I11" t="n">
         <v>36.1</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.331</v>
+        <v>0.335</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R11" t="n">
         <v>12.4</v>
@@ -2358,73 +2425,73 @@
         <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
         <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="n">
         <v>19.9</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>20</v>
       </c>
       <c r="AB11" t="n">
         <v>95.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>9</v>
@@ -2433,28 +2500,28 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -2486,82 +2553,82 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.452</v>
+        <v>0.439</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J12" t="n">
-        <v>86.5</v>
+        <v>86.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M12" t="n">
         <v>23.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
         <v>16.6</v>
       </c>
       <c r="W12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
         <v>24.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
@@ -2573,10 +2640,10 @@
         <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,19 +2661,19 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>16</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2624,13 +2691,13 @@
         <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
@@ -2686,10 +2753,10 @@
         <v>34.1</v>
       </c>
       <c r="J13" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L13" t="n">
         <v>4.4</v>
@@ -2698,31 +2765,31 @@
         <v>13.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O13" t="n">
         <v>20.7</v>
       </c>
       <c r="P13" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R13" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="T13" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="U13" t="n">
         <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="W13" t="n">
         <v>6.6</v>
@@ -2731,19 +2798,19 @@
         <v>5.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
         <v>93.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5</v>
+        <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2785,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>27</v>
@@ -2794,10 +2861,10 @@
         <v>7</v>
       </c>
       <c r="AT13" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2812,13 +2879,13 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,28 +2935,28 @@
         <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O14" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P14" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R14" t="n">
         <v>11.1</v>
@@ -2901,13 +2968,13 @@
         <v>45.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>5.1</v>
@@ -2916,28 +2983,28 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2949,22 +3016,22 @@
         <v>9</v>
       </c>
       <c r="AK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP14" t="n">
         <v>4</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>3</v>
       </c>
       <c r="AQ14" t="n">
         <v>13</v>
@@ -2985,19 +3052,19 @@
         <v>22</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.293</v>
+        <v>0.275</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,37 +3117,37 @@
         <v>37.6</v>
       </c>
       <c r="J15" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L15" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O15" t="n">
         <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
         <v>21</v>
@@ -3095,25 +3162,25 @@
         <v>5.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
         <v>22</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.6</v>
+        <v>-4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>7</v>
@@ -3152,16 +3219,16 @@
         <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3173,19 +3240,19 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>12</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,40 +3299,40 @@
         <v>35.2</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
         <v>0.457</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M16" t="n">
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R16" t="n">
         <v>9.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
         <v>38.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
         <v>15.1</v>
@@ -3274,25 +3341,25 @@
         <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z16" t="n">
         <v>20.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>
@@ -3346,10 +3413,10 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
         <v>16</v>
@@ -3364,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3417,64 +3484,64 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
         <v>16.9</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
         <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z17" t="n">
         <v>21.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3492,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
@@ -3501,10 +3568,10 @@
         <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3516,28 +3583,28 @@
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.15</v>
+        <v>0.128</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="V18" t="n">
         <v>15.8</v>
@@ -3641,22 +3708,22 @@
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z18" t="n">
         <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.7</v>
+        <v>93.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.4</v>
+        <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3686,7 +3753,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,22 +3762,22 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
         <v>19</v>
@@ -3719,7 +3786,7 @@
         <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-5.5</v>
       </c>
       <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
         <v>17</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,16 +3926,16 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>9</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
@@ -3886,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3910,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,43 +4027,43 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.454</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
         <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
         <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="W20" t="n">
         <v>7.7</v>
@@ -4011,16 +4078,16 @@
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4029,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
@@ -4068,22 +4135,22 @@
         <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -4124,70 +4191,70 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.317</v>
+        <v>0.325</v>
       </c>
       <c r="H21" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
         <v>17.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P21" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.714</v>
+        <v>0.71</v>
       </c>
       <c r="R21" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S21" t="n">
         <v>29.1</v>
       </c>
       <c r="T21" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="V21" t="n">
         <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z21" t="n">
         <v>21.4</v>
@@ -4196,13 +4263,13 @@
         <v>21.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4232,16 +4299,16 @@
         <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR21" t="n">
         <v>4</v>
@@ -4250,13 +4317,13 @@
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4268,13 +4335,13 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,43 +4391,43 @@
         <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L22" t="n">
         <v>8.9</v>
       </c>
       <c r="M22" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S22" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T22" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W22" t="n">
         <v>6.4</v>
@@ -4369,16 +4436,16 @@
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z22" t="n">
         <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC22" t="n">
         <v>2.9</v>
@@ -4393,16 +4460,16 @@
         <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
         <v>26</v>
@@ -4441,13 +4508,13 @@
         <v>16</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>13</v>
@@ -4459,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.446</v>
@@ -4518,31 +4585,31 @@
         <v>11.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O23" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.712</v>
+        <v>0.715</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U23" t="n">
         <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W23" t="n">
         <v>8.4</v>
@@ -4554,16 +4621,16 @@
         <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD23" t="n">
         <v>3</v>
@@ -4584,28 +4651,28 @@
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
         <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
         <v>3</v>
@@ -4614,7 +4681,7 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
@@ -4626,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>19</v>
@@ -4641,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>2</v>
@@ -4778,16 +4845,16 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,19 +4872,19 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J25" t="n">
-        <v>78.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.46</v>
@@ -4882,7 +4949,7 @@
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.399</v>
+        <v>0.398</v>
       </c>
       <c r="O25" t="n">
         <v>18</v>
@@ -4891,13 +4958,13 @@
         <v>23.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S25" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T25" t="n">
         <v>40.7</v>
@@ -4906,7 +4973,7 @@
         <v>21.8</v>
       </c>
       <c r="V25" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4918,34 +4985,34 @@
         <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF25" t="n">
         <v>9</v>
       </c>
-      <c r="AF25" t="n">
-        <v>8</v>
-      </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>24</v>
@@ -4963,10 +5030,10 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>9</v>
@@ -4978,10 +5045,10 @@
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>8</v>
@@ -4990,19 +5057,19 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
       </c>
       <c r="BA25" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB25" t="n">
         <v>17</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>15</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -5142,10 +5209,10 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
         <v>8</v>
@@ -5154,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5175,19 +5242,19 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
         <v>11</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
         <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0.667</v>
+        <v>0.658</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5243,22 +5310,22 @@
         <v>7.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P27" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q27" t="n">
         <v>0.749</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
         <v>31.4</v>
@@ -5267,25 +5334,25 @@
         <v>41.7</v>
       </c>
       <c r="U27" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V27" t="n">
         <v>12.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
         <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB27" t="n">
         <v>97.2</v>
@@ -5294,13 +5361,13 @@
         <v>5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
       </c>
       <c r="AF27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
         <v>7</v>
@@ -5309,13 +5376,13 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5324,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
@@ -5342,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
         <v>11</v>
@@ -5351,22 +5418,22 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,28 +5483,28 @@
         <v>37.3</v>
       </c>
       <c r="J28" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M28" t="n">
         <v>13.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
       <c r="O28" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>11.8</v>
@@ -5449,10 +5516,10 @@
         <v>45.4</v>
       </c>
       <c r="U28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V28" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W28" t="n">
         <v>6.6</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
         <v>-8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5506,7 +5573,7 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV28" t="n">
         <v>28</v>
@@ -5539,7 +5606,7 @@
         <v>9</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5670,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5682,7 +5749,7 @@
         <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5703,10 +5770,10 @@
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>9</v>
@@ -5715,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5730,7 +5797,7 @@
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.571</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J30" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.491</v>
+        <v>0.489</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
@@ -5792,34 +5859,34 @@
         <v>11.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="P30" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
         <v>29</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5831,22 +5898,22 @@
         <v>24.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AD30" t="n">
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
@@ -5861,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,40 +5937,40 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
         <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
         <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J31" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.346</v>
+        <v>0.341</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="R31" t="n">
         <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T31" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
@@ -6010,22 +6077,22 @@
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
         <v>99.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>10</v>
@@ -6037,28 +6104,28 @@
         <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
         <v>18</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,10 +6134,10 @@
         <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>26</v>
@@ -6079,7 +6146,7 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
@@ -6091,13 +6158,13 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
       </c>
       <c r="BC31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-21-2007-08</t>
+          <t>2008-01-21</t>
         </is>
       </c>
     </row>
